--- a/biology/Zoologie/Faucon_gris/Faucon_gris.xlsx
+++ b/biology/Zoologie/Faucon_gris/Faucon_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falco hypoleucos
-Le Faucon gris (Falco hypoleucos) est une espèce de rapaces australiens très mal connue. Sa population est estimée à environ 1 000 couples matures[1].
+Le Faucon gris (Falco hypoleucos) est une espèce de rapaces australiens très mal connue. Sa population est estimée à environ 1 000 couples matures.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 30 à 45 cm de long, 85 à 95 cm d'envergure et pèse 350 à 600 g. Il est de couleur grise sur le dos, blanche sur le ventre. L'extrémité des ailes est plus foncée. Les pattes sont jaunes.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les régions sèches du centre de l'Australie.
 Il habite les régions peu boisées ou les prairies.
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit principalement d'oiseaux, surtout de perruches mais aussi de petits mammifères, reptiles et insectes.
 </t>
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans les arbres, s'appropriant les nids d'autres espèces. Les couvées sont de 2 à 3 œufs.
 </t>
